--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MISSOURI_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MISSOURI_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1029"/>
+  <dimension ref="A1:D1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C37">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C61">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C75">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C109">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C111">
@@ -2024,7 +2024,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C126">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2146,7 +2146,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C135">
@@ -2341,7 +2341,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2463,7 +2463,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C159">
@@ -2624,7 +2624,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C171">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C188">
@@ -2980,12 +2980,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C198">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C201">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C204">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C211">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C216">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C221">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C235">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C245">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C250">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C254">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C257">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C258">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C265">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C272">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C275">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C285">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C292">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C293">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C298">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C313">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C319">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C325">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C330">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C333">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C345">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C349">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C356">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C365">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C370">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C372">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C382">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C384">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C387">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C390">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C394">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C399">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C403">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C409">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C411">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C418">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C426">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C442">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C446">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C452">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -6507,7 +6507,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C467">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C514">
@@ -7487,7 +7487,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C542">
@@ -7648,7 +7648,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C554">
@@ -7861,7 +7861,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C570">
@@ -7926,7 +7926,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C575">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C579">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C582">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C585">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C592">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C632">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C670">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C678">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C687">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C692">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C694">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C696">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C705">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C707">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C712">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C714">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C722">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C724">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C731">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C732">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C749">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C753">
@@ -10281,7 +10281,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C755">
@@ -10346,7 +10346,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C760">
@@ -10359,7 +10359,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C761">
@@ -10398,7 +10398,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C764">
@@ -10424,7 +10424,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C766">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C779">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C786">
@@ -10746,7 +10746,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C790">
@@ -10798,7 +10798,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C794">
@@ -10824,7 +10824,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C796">
@@ -10876,7 +10876,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C800">
@@ -10889,7 +10889,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C801">
@@ -10902,7 +10902,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C802">
@@ -11185,7 +11185,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C823">
@@ -11637,7 +11637,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C857">
@@ -11707,7 +11707,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C862">
@@ -11759,7 +11759,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C866">
@@ -11798,7 +11798,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C869">
@@ -11850,7 +11850,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C873">
@@ -11902,7 +11902,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C877">
@@ -11967,7 +11967,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C886">
@@ -12050,7 +12050,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C888">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C894">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C902">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C903">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C914">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C916">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C917">
@@ -12440,7 +12440,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C918">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C926">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C937">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C940">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C946">
@@ -12830,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C948">
@@ -12973,7 +12973,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C959">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C967">
@@ -13321,7 +13321,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C985">
@@ -13568,7 +13568,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1004">
@@ -13581,7 +13581,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1005">
@@ -13711,7 +13711,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1015">
@@ -13724,7 +13724,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1016">
@@ -13763,7 +13763,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1019">
@@ -13815,7 +13815,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1023">
@@ -13823,41 +13823,6 @@
       </c>
       <c r="D1023">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
